--- a/testData/Python_Editor_Data.xlsx
+++ b/testData/Python_Editor_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kotha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Madhuri_Numpy_Ninja\TestNgFramework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB363572-2519-45CE-BDEE-A284510FC7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC861AD4-33B9-4570-9C79-DA1751F00972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E0E5FE83-F7EC-4FA9-ABD6-F2830CC9D99A}"/>
+    <workbookView xWindow="4020" yWindow="4020" windowWidth="21600" windowHeight="11295" xr2:uid="{E0E5FE83-F7EC-4FA9-ABD6-F2830CC9D99A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -548,18 +557,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86300902-3A55-4EDA-8E85-80F249BBB131}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -567,7 +576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="156" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -575,7 +584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="149.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -583,7 +592,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="296.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="296.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -591,7 +600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="305.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="305.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -599,7 +608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="234" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="234" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -607,7 +616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="221.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="221.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -615,7 +624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="178.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -623,7 +632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="218.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="218.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -631,7 +640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -639,7 +648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="296.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="296.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -647,7 +656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="224.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="224.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -655,7 +664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="178.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
